--- a/Project_08_Converting_Data_Types/Converting_Data_Types.xlsx
+++ b/Project_08_Converting_Data_Types/Converting_Data_Types.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Data_Science\Projects\Excel_Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub_Projects\MS_Excel\Project_08_Converting_Data_Types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB5F381-DAF4-4443-98FA-8FDF99EE60C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC5442C-8DB9-4AAF-AF5E-2F4D8E4470F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,11 +88,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="171" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="172" formatCode="[$$-409]#,##0"/>
-    <numFmt numFmtId="173" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="174" formatCode="mmm/dd/yy"/>
-    <numFmt numFmtId="175" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="168" formatCode="mmm/dd/yy"/>
+    <numFmt numFmtId="169" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -127,18 +127,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFCC00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -154,12 +148,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor rgb="FFFBD4B4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -200,6 +206,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -208,55 +229,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="17" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,32 +494,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -509,14 +531,14 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
@@ -525,13 +547,13 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <v>10</v>
       </c>
       <c r="D4" s="2"/>
@@ -540,13 +562,13 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="8">
         <v>10</v>
       </c>
       <c r="D5" s="2"/>
@@ -555,13 +577,13 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="9">
         <v>10</v>
       </c>
       <c r="D6" s="2"/>
@@ -570,13 +592,13 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="10">
         <v>10</v>
       </c>
       <c r="D7" s="2"/>
@@ -585,13 +607,13 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>10.25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="9">
         <f>ROUND(A8,1)</f>
         <v>10.3</v>
       </c>
@@ -601,13 +623,13 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>10.25</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="8">
         <v>10.25</v>
       </c>
       <c r="D9" s="2"/>
@@ -616,13 +638,13 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>39814</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="5">
+        <v>39814</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" s="11" t="str">
         <f>TEXT(A10,"ddd")</f>
         <v>Thu</v>
       </c>
@@ -632,13 +654,13 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>39814</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="5">
+        <v>39814</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="12">
         <v>39814</v>
       </c>
       <c r="D11" s="2"/>
@@ -647,13 +669,13 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>39814</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="5">
+        <v>39814</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" s="11" t="str">
         <f>TEXT(A12,"mmm")</f>
         <v>Jan</v>
       </c>
@@ -663,13 +685,13 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>39814</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="5">
+        <v>39814</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="11" t="str">
         <f>TEXT(A13,"mmmm")</f>
         <v>January</v>
       </c>
@@ -679,13 +701,13 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>39814</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="5">
+        <v>39814</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="16" t="str">
+      <c r="C14" s="11" t="str">
         <f>TEXT(A14,"dddd")</f>
         <v>Thursday</v>
       </c>
@@ -695,13 +717,13 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>39814</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="5">
+        <v>39814</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="13">
         <v>39814</v>
       </c>
       <c r="D15" s="2"/>
@@ -710,13 +732,13 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>39814</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="5">
+        <v>39814</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="14">
         <v>39814</v>
       </c>
       <c r="D16" s="2"/>
@@ -725,13 +747,13 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>39814</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="5">
+        <v>39814</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="15">
         <v>39814</v>
       </c>
       <c r="D17" s="2"/>
@@ -740,13 +762,13 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="16" t="str">
+      <c r="C18" s="11" t="str">
         <f>LEFT(A18,2)&amp;" "&amp;MID(A18,3,3)&amp;" "&amp;MID(A18,6,5)&amp;" "&amp;RIGHT(A18,1)</f>
         <v>Co mpe titio n</v>
       </c>
@@ -756,13 +778,13 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="14" t="str">
+      <c r="C19" s="9" t="str">
         <f>LEFT(A19,2)&amp;""&amp;MID(A19,4,3)&amp;""&amp;MID(A19,8,5)&amp;""&amp;RIGHT(A19,1)</f>
         <v>Competition</v>
       </c>
